--- a/biology/Botanique/Epipactis_microphylla/Epipactis_microphylla.xlsx
+++ b/biology/Botanique/Epipactis_microphylla/Epipactis_microphylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Épipactis à petites feuilles
 Epipactis microphylla, l'épipactis à petites feuilles, est une espèce de plante herbacée vivace de la famille des Orchidaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante grêle de 10 à 50 cm. La tige est pubescente, vert-grisâtre. Les feuilles sont très petites, peu nombreuses et engainantes. Les fleurs, vert jaunâtre, sont de petite taille, peu ouvertes, très odorantes et disposées en grappe lâche; le labelle est formé de 2 parties: l'épichile clair, est pourvu de 2 grosses bosses plissées et l'hypochile, verdâtre, concave. L'épipactis à petites feuilles passe souvent inaperçu et est relativement difficile à trouver.
 </t>
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Floraison de mai-juin à juillet. Géophyte à rhizome.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur substrat calcaire, à l'ombre. Forêts feuillues, buissons, taillis.
 </t>
@@ -605,9 +623,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Europe et ouest de l'Asie, incluant le Caucase et jusqu'en Iran. En Algérie dans le massif des Babors en Petite Kabylie[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Europe et ouest de l'Asie, incluant le Caucase et jusqu'en Iran. En Algérie dans le massif des Babors en Petite Kabylie.
 Étages collinéen et montagnard. Subatlantique et subméditerranéen.
 </t>
         </is>
@@ -637,7 +657,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">micro : petite taille et phylla : feuille.
 </t>
@@ -668,10 +690,12 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En France, l'espèce est rare et disséminée. Cette espèce est inscrite dans la liste des espèces végétales protégées en Alsace, en Auvergne, dans le Centre, en Île-de-France, en Lorraine, en Poitou-Charentes, en Pays-de-Loire, dans le Limousin et en Franche-Comté en Rhône-Alpes[2].
-L'espèce est classée "LC" : Préoccupation mineure[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En France, l'espèce est rare et disséminée. Cette espèce est inscrite dans la liste des espèces végétales protégées en Alsace, en Auvergne, dans le Centre, en Île-de-France, en Lorraine, en Poitou-Charentes, en Pays-de-Loire, dans le Limousin et en Franche-Comté en Rhône-Alpes.
+L'espèce est classée "LC" : Préoccupation mineure.
 L'espèce est légalement protégée en Belgique.
 Espèces végétales légalement protégées en Belgique
 Liste des espèces végétales protégées en Lorraine
